--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_4.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63290.25066097061</v>
+        <v>-47015.50734382172</v>
       </c>
     </row>
     <row r="7">
@@ -26326,7 +26326,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="G2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="H2" t="n">
         <v>21501.48110628928</v>
@@ -26335,7 +26335,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="J2" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="K2" t="n">
         <v>21501.48110628928</v>
@@ -26353,7 +26353,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="P2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="C4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="D4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="E4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="F4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="G4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="H4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="I4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="J4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="K4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="L4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="M4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="N4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="O4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="P4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30197.41333413503</v>
+        <v>-28252.22972342768</v>
       </c>
       <c r="C6" t="n">
-        <v>-30197.41333413503</v>
+        <v>-28252.22972342768</v>
       </c>
       <c r="D6" t="n">
-        <v>-30197.41333413503</v>
+        <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="F6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="G6" t="n">
-        <v>3430.186665864963</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="H6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="I6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="J6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572314</v>
       </c>
       <c r="K6" t="n">
-        <v>3430.186665864971</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="L6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="M6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="N6" t="n">
-        <v>3430.186665864971</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="O6" t="n">
-        <v>3430.186665864967</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="P6" t="n">
-        <v>3430.186665864963</v>
+        <v>5375.370276572325</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_4.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382172</v>
+        <v>-47015.50734382174</v>
       </c>
     </row>
     <row r="7">
@@ -26335,10 +26337,10 @@
         <v>21501.48110628928</v>
       </c>
       <c r="J2" t="n">
+        <v>21501.48110628928</v>
+      </c>
+      <c r="K2" t="n">
         <v>21501.48110628927</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21501.48110628928</v>
       </c>
       <c r="L2" t="n">
         <v>21501.48110628928</v>
@@ -26528,28 +26530,28 @@
         <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572317</v>
       </c>
       <c r="F6" t="n">
         <v>5375.370276572317</v>
       </c>
       <c r="G6" t="n">
+        <v>5375.370276572317</v>
+      </c>
+      <c r="H6" t="n">
         <v>5375.370276572321</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5375.370276572317</v>
       </c>
       <c r="I6" t="n">
         <v>5375.370276572317</v>
       </c>
       <c r="J6" t="n">
+        <v>5375.370276572317</v>
+      </c>
+      <c r="K6" t="n">
         <v>5375.370276572314</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>5375.370276572321</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5375.370276572317</v>
       </c>
       <c r="M6" t="n">
         <v>5375.370276572317</v>
@@ -26558,10 +26560,10 @@
         <v>5375.370276572317</v>
       </c>
       <c r="O6" t="n">
+        <v>5375.370276572321</v>
+      </c>
+      <c r="P6" t="n">
         <v>5375.370276572317</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5375.370276572325</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382174</v>
+        <v>-173776.4612130868</v>
       </c>
     </row>
     <row r="7">
@@ -26340,7 +26340,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="K2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="L2" t="n">
         <v>21501.48110628928</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346244</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="F6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.370276572321</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.30369346244</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.370276572314</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="L6" t="n">
-        <v>5375.370276572321</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572321</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572317</v>
+        <v>-9775.303693462447</v>
       </c>
     </row>
   </sheetData>
